--- a/data/trans_orig/P6902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00B35A34-B8B3-4D1C-912F-2FCFF20F52A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE7AC00-5930-465F-A9A5-14D5241984EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F51EA196-2723-42BF-8B68-D9E5BE4695D3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9708D35-3EB6-4A18-873C-B164AF7F55C4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="628">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>49,4%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>56,47%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,6%</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>43,13%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
   </si>
   <si>
     <t>60,22%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>51,55%</t>
   </si>
   <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>41,88%</t>
   </si>
   <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
   </si>
   <si>
     <t>58,12%</t>
   </si>
   <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>45,66%</t>
   </si>
   <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>48,91%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
   </si>
   <si>
     <t>54,34%</t>
   </si>
   <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>42,71%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
   </si>
   <si>
     <t>51,09%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,16 +311,16 @@
     <t>30,18%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>71,9%</t>
   </si>
   <si>
-    <t>29,1%</t>
+    <t>29,13%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -329,19 +329,19 @@
     <t>39,9%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>28,1%</t>
@@ -350,16 +350,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>70,9%</t>
+    <t>70,87%</t>
   </si>
   <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,55 +368,55 @@
     <t>42,35%</t>
   </si>
   <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>50,08%</t>
   </si>
   <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
   </si>
   <si>
     <t>57,65%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>49,92%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -425,1522 +425,1504 @@
     <t>47,32%</t>
   </si>
   <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
     <t>36,3%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DBA306-0FE4-4AD2-B55D-4EA0EC80C011}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32930FE7-29AD-4022-B7C6-82E2B580306B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3439,10 +3421,10 @@
         <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3439,13 @@
         <v>46595</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3472,13 +3454,13 @@
         <v>22576</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -3487,13 +3469,13 @@
         <v>69171</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,7 +3531,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3561,13 +3543,13 @@
         <v>44222</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -3576,13 +3558,13 @@
         <v>21059</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -3591,13 +3573,13 @@
         <v>65281</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3594,13 @@
         <v>64693</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -3627,13 +3609,13 @@
         <v>28727</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -3642,13 +3624,13 @@
         <v>93420</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3698,13 @@
         <v>205061</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -3731,13 +3713,13 @@
         <v>113018</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>302</v>
@@ -3746,13 +3728,13 @@
         <v>318079</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3749,13 @@
         <v>267244</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -3782,13 +3764,13 @@
         <v>107103</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>363</v>
@@ -3797,13 +3779,13 @@
         <v>374348</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3841,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3883,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1496AF-B4AC-43A3-90E3-95298A02B367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A861AF31-56EA-48C3-907D-6563FC97D0DB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3900,7 +3882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,39 +3987,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,39 +4032,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,39 +4077,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4126,13 @@
         <v>28048</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4159,13 +4141,13 @@
         <v>15915</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4174,13 +4156,13 @@
         <v>43963</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4177,13 @@
         <v>28542</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4210,13 +4192,13 @@
         <v>18400</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -4225,13 +4207,13 @@
         <v>46942</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4281,13 @@
         <v>7545</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4314,13 +4296,13 @@
         <v>9073</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4329,13 +4311,13 @@
         <v>16618</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4332,13 @@
         <v>17760</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4365,13 +4347,13 @@
         <v>8862</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4380,13 +4362,13 @@
         <v>26622</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4436,13 @@
         <v>46881</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4469,13 +4451,13 @@
         <v>44111</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4484,13 +4466,13 @@
         <v>90993</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4487,13 @@
         <v>37231</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4520,13 +4502,13 @@
         <v>15569</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4535,13 +4517,13 @@
         <v>52800</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4591,13 @@
         <v>1042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4624,13 +4606,13 @@
         <v>7785</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4639,13 +4621,13 @@
         <v>8827</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,10 +4642,10 @@
         <v>15127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>94</v>
@@ -4675,13 +4657,13 @@
         <v>3876</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4690,13 +4672,13 @@
         <v>19003</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4746,13 @@
         <v>21100</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4779,13 +4761,13 @@
         <v>7895</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4794,13 +4776,13 @@
         <v>28995</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4797,13 @@
         <v>22280</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4830,13 +4812,13 @@
         <v>7289</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4845,13 +4827,13 @@
         <v>29569</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4901,13 @@
         <v>32744</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4934,13 +4916,13 @@
         <v>26339</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4949,13 +4931,13 @@
         <v>59083</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4952,13 @@
         <v>21686</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4985,13 +4967,13 @@
         <v>20041</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -5000,13 +4982,13 @@
         <v>41727</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,7 +5044,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5074,13 +5056,13 @@
         <v>15011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5089,13 +5071,13 @@
         <v>13067</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5104,13 +5086,13 @@
         <v>28078</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5107,13 @@
         <v>30108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5140,13 +5122,13 @@
         <v>17605</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -5155,13 +5137,13 @@
         <v>47713</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5211,13 @@
         <v>152372</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>115</v>
@@ -5244,13 +5226,13 @@
         <v>124186</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>260</v>
@@ -5259,13 +5241,13 @@
         <v>276557</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5262,13 @@
         <v>172733</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -5295,13 +5277,13 @@
         <v>91642</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -5310,13 +5292,13 @@
         <v>264375</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5354,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5396,7 +5378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5567BE2-B47D-4DB9-BA68-2ADC8201863A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E415820-D6E8-4D8A-81E5-DC2A243720BF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5413,7 +5395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5520,13 +5502,13 @@
         <v>32556</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5535,13 +5517,13 @@
         <v>26078</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5550,13 +5532,13 @@
         <v>58634</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5553,13 @@
         <v>26021</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5586,13 +5568,13 @@
         <v>14806</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5601,13 +5583,13 @@
         <v>40827</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,10 +5970,10 @@
         <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6000,13 +5982,13 @@
         <v>19020</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -6015,13 +5997,13 @@
         <v>44033</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6018,13 @@
         <v>7452</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6051,13 +6033,13 @@
         <v>10915</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -6066,13 +6048,13 @@
         <v>18367</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6122,13 @@
         <v>9845</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6158,7 +6140,7 @@
         <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -6170,13 +6152,13 @@
         <v>15616</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6173,13 @@
         <v>5025</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6209,10 +6191,10 @@
         <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -6221,13 +6203,13 @@
         <v>5025</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6277,13 @@
         <v>6107</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6310,13 +6292,13 @@
         <v>3487</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6325,13 +6307,13 @@
         <v>9593</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6328,13 @@
         <v>16327</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6361,13 +6343,13 @@
         <v>3940</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6376,13 +6358,13 @@
         <v>20267</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6432,13 @@
         <v>31772</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6483,10 +6465,10 @@
         <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6483,13 @@
         <v>46570</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>437</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -6516,13 +6498,13 @@
         <v>18544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6531,13 +6513,13 @@
         <v>65113</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,7 +6575,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6605,13 +6587,13 @@
         <v>20273</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>362</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>239</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6620,13 +6602,13 @@
         <v>9526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6635,13 +6617,13 @@
         <v>29799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6638,13 @@
         <v>19001</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>247</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6766,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6775,10 +6757,10 @@
         <v>131034</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>463</v>
@@ -6814,10 +6796,10 @@
         <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -6826,13 +6808,13 @@
         <v>85264</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M29" s="7">
         <v>267</v>
@@ -6903,7 +6885,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6927,7 +6909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0B0C12-DAC5-4470-BEB8-85D18FF520DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB85190-E7AF-472D-9E63-36779A42033C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7051,13 +7033,13 @@
         <v>10621</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7066,13 +7048,13 @@
         <v>6564</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7081,13 +7063,13 @@
         <v>17185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7102,13 +7084,13 @@
         <v>9950</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>485</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -7117,13 +7099,13 @@
         <v>8279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -7132,13 +7114,13 @@
         <v>18229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7188,13 @@
         <v>20664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -7221,13 +7203,13 @@
         <v>27338</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -7236,13 +7218,13 @@
         <v>48003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7239,13 @@
         <v>25337</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -7272,13 +7254,13 @@
         <v>21283</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -7287,13 +7269,13 @@
         <v>46619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7343,13 @@
         <v>24483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -7376,13 +7358,13 @@
         <v>30565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -7391,13 +7373,13 @@
         <v>55048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7412,13 +7394,13 @@
         <v>26247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>380</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -7549,10 +7531,10 @@
         <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7549,13 @@
         <v>9355</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -7582,13 +7564,13 @@
         <v>22834</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -7597,13 +7579,13 @@
         <v>32190</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>544</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7653,13 @@
         <v>11199</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7686,13 +7668,13 @@
         <v>9448</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7701,13 +7683,13 @@
         <v>20647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>203</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7704,13 @@
         <v>8243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7737,13 +7719,13 @@
         <v>2533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -7752,13 +7734,13 @@
         <v>10775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>563</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7808,13 @@
         <v>17103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -7841,13 +7823,13 @@
         <v>16930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>568</v>
+        <v>443</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7856,13 +7838,13 @@
         <v>34033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7859,13 @@
         <v>15603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -7892,13 +7874,13 @@
         <v>15541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>578</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -7907,13 +7889,13 @@
         <v>31144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7963,13 @@
         <v>50243</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>365</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -7996,13 +7978,13 @@
         <v>56299</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -8011,13 +7993,13 @@
         <v>106543</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8014,13 @@
         <v>24134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>593</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -8047,13 +8029,13 @@
         <v>18781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -8062,13 +8044,13 @@
         <v>42915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,7 +8106,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8136,13 +8118,13 @@
         <v>53156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -8151,13 +8133,13 @@
         <v>48242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -8166,13 +8148,13 @@
         <v>101398</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,13 +8169,13 @@
         <v>13900</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -8202,13 +8184,13 @@
         <v>18894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -8217,13 +8199,13 @@
         <v>32793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8273,13 @@
         <v>220248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H28" s="7">
         <v>313</v>
@@ -8306,13 +8288,13 @@
         <v>234711</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M28" s="7">
         <v>515</v>
@@ -8321,13 +8303,13 @@
         <v>454958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>616</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8342,13 +8324,13 @@
         <v>132770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
@@ -8357,13 +8339,13 @@
         <v>126500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
@@ -8372,13 +8354,13 @@
         <v>259270</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>625</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8434,7 +8416,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE7AC00-5930-465F-A9A5-14D5241984EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C74E691-104A-4703-8091-75F53BDB2231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9708D35-3EB6-4A18-873C-B164AF7F55C4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8651172A-7B21-4EB8-B399-D97BA2FA1802}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="636">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1728 +77,1764 @@
     <t>49,4%</t>
   </si>
   <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>66,11%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
     <t>35,13%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>64,87%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
   </si>
   <si>
     <t>52,43%</t>
   </si>
   <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
   </si>
   <si>
     <t>55,56%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>44,44%</t>
   </si>
   <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
     <t>25,01%</t>
   </si>
   <si>
@@ -1871,9 +1907,6 @@
     <t>39,49%</t>
   </si>
   <si>
-    <t>62,39%</t>
-  </si>
-  <si>
     <t>56,22%</t>
   </si>
   <si>
@@ -1889,18 +1922,12 @@
     <t>69,7%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
     <t>59,1%</t>
   </si>
   <si>
     <t>67,4%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
     <t>32,54%</t>
   </si>
   <si>
@@ -1914,9 +1941,6 @@
   </si>
   <si>
     <t>42,85%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
   </si>
   <si>
     <t>32,6%</t>
@@ -2334,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32930FE7-29AD-4022-B7C6-82E2B580306B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC0136A-FB11-4D34-807F-BFBA16505C46}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3421,10 +3445,10 @@
         <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3463,13 @@
         <v>46595</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3454,13 +3478,13 @@
         <v>22576</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>66</v>
@@ -3469,13 +3493,13 @@
         <v>69171</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3555,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3543,13 +3567,13 @@
         <v>44222</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>20</v>
@@ -3558,13 +3582,13 @@
         <v>21059</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>64</v>
@@ -3573,13 +3597,13 @@
         <v>65281</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3618,13 @@
         <v>64693</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -3609,13 +3633,13 @@
         <v>28727</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -3624,13 +3648,13 @@
         <v>93420</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3722,13 @@
         <v>205061</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>111</v>
@@ -3713,13 +3737,13 @@
         <v>113018</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>302</v>
@@ -3728,13 +3752,13 @@
         <v>318079</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3773,13 @@
         <v>267244</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>104</v>
@@ -3764,13 +3788,13 @@
         <v>107103</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>363</v>
@@ -3779,13 +3803,13 @@
         <v>374348</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3865,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3865,7 +3889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A861AF31-56EA-48C3-907D-6563FC97D0DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4D37A8-8751-475E-919C-A377F717E815}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3882,7 +3906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,39 +4011,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,39 +4056,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,39 +4101,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4150,13 @@
         <v>28048</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4141,13 +4165,13 @@
         <v>15915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4156,13 +4180,13 @@
         <v>43963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,10 +4201,10 @@
         <v>28542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>194</v>
@@ -4287,7 +4311,7 @@
         <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4296,13 +4320,13 @@
         <v>9073</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4311,13 +4335,13 @@
         <v>16618</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,13 +4356,13 @@
         <v>17760</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4347,13 +4371,13 @@
         <v>8862</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4362,13 +4386,13 @@
         <v>26622</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4460,13 @@
         <v>46881</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4451,13 +4475,13 @@
         <v>44111</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4466,13 +4490,13 @@
         <v>90993</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,13 +4511,13 @@
         <v>37231</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4502,13 +4526,13 @@
         <v>15569</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4517,13 +4541,13 @@
         <v>52800</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,13 +4615,13 @@
         <v>1042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4606,13 +4630,13 @@
         <v>7785</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4621,13 +4645,13 @@
         <v>8827</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,10 +4666,10 @@
         <v>15127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>94</v>
@@ -4657,13 +4681,13 @@
         <v>3876</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4672,13 +4696,13 @@
         <v>19003</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,13 +4770,13 @@
         <v>21100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4761,13 +4785,13 @@
         <v>7895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4776,13 +4800,13 @@
         <v>28995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,13 +4821,13 @@
         <v>22280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4812,13 +4836,13 @@
         <v>7289</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4827,13 +4851,13 @@
         <v>29569</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4925,13 @@
         <v>32744</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4916,13 +4940,13 @@
         <v>26339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4931,13 +4955,13 @@
         <v>59083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4976,13 @@
         <v>21686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4967,13 +4991,13 @@
         <v>20041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -4982,13 +5006,13 @@
         <v>41727</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5068,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5056,13 +5080,13 @@
         <v>15011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5071,13 +5095,13 @@
         <v>13067</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5086,13 +5110,13 @@
         <v>28078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5131,13 @@
         <v>30108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5122,13 +5146,13 @@
         <v>17605</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -5137,13 +5161,13 @@
         <v>47713</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5235,13 @@
         <v>152372</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>115</v>
@@ -5226,13 +5250,13 @@
         <v>124186</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>260</v>
@@ -5241,13 +5265,13 @@
         <v>276557</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5286,13 @@
         <v>172733</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -5277,13 +5301,13 @@
         <v>91642</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -5292,13 +5316,13 @@
         <v>264375</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,7 +5378,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5378,7 +5402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E415820-D6E8-4D8A-81E5-DC2A243720BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7B537-438B-45AF-A13F-56D71E55AE38}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5395,7 +5419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5502,13 +5526,13 @@
         <v>32556</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5517,13 +5541,13 @@
         <v>26078</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5532,13 +5556,13 @@
         <v>58634</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5553,13 +5577,13 @@
         <v>26021</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5568,13 +5592,13 @@
         <v>14806</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5583,13 +5607,13 @@
         <v>40827</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5681,13 @@
         <v>22854</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5672,13 +5696,13 @@
         <v>26312</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5687,13 +5711,13 @@
         <v>49165</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5732,13 @@
         <v>59932</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5723,13 +5747,13 @@
         <v>16385</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -5738,13 +5762,13 @@
         <v>76318</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5836,13 @@
         <v>3575</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5827,13 +5851,13 @@
         <v>3702</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5842,13 +5866,13 @@
         <v>7277</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5887,13 @@
         <v>17679</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5878,13 +5902,13 @@
         <v>8799</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5893,13 +5917,13 @@
         <v>26478</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5991,13 @@
         <v>25013</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -5982,13 +6006,13 @@
         <v>19020</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -5997,13 +6021,13 @@
         <v>44033</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,13 +6042,13 @@
         <v>7452</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6307,13 +6331,13 @@
         <v>9593</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6352,13 @@
         <v>16327</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6343,13 +6367,13 @@
         <v>3940</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6358,13 +6382,13 @@
         <v>20267</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6456,13 @@
         <v>31772</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6447,13 +6471,13 @@
         <v>37138</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -6462,13 +6486,13 @@
         <v>68911</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6483,13 +6507,13 @@
         <v>46570</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -6498,13 +6522,13 @@
         <v>18544</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>441</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6513,13 +6537,13 @@
         <v>65113</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,7 +6599,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6587,13 +6611,13 @@
         <v>20273</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6641,10 +6665,10 @@
         <v>452</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>247</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>370</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6653,13 +6677,13 @@
         <v>11874</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -6668,13 +6692,13 @@
         <v>30875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6766,13 @@
         <v>151995</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>319</v>
+        <v>463</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6757,13 +6781,13 @@
         <v>131034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -6772,13 +6796,13 @@
         <v>283029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6793,13 +6817,13 @@
         <v>198006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -6808,13 +6832,13 @@
         <v>85264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="M29" s="7">
         <v>267</v>
@@ -6823,13 +6847,13 @@
         <v>283270</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6885,7 +6909,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6909,7 +6933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB85190-E7AF-472D-9E63-36779A42033C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E0497F-8D1F-453D-8297-2C8CC4068D31}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6926,7 +6950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7033,13 +7057,13 @@
         <v>10621</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7048,13 +7072,13 @@
         <v>6564</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7063,13 +7087,13 @@
         <v>17185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7084,13 +7108,13 @@
         <v>9950</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -7099,13 +7123,13 @@
         <v>8279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -7114,13 +7138,13 @@
         <v>18229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7212,13 @@
         <v>20664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -7203,13 +7227,13 @@
         <v>27338</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -7218,13 +7242,13 @@
         <v>48003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,13 +7263,13 @@
         <v>25337</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -7254,13 +7278,13 @@
         <v>21283</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -7269,13 +7293,13 @@
         <v>46619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7367,13 @@
         <v>24483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>388</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -7358,13 +7382,13 @@
         <v>30565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -7373,13 +7397,13 @@
         <v>55048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7418,13 @@
         <v>26247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -7409,13 +7433,13 @@
         <v>18356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -7424,13 +7448,13 @@
         <v>44603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7522,13 @@
         <v>32779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -7513,13 +7537,13 @@
         <v>39325</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -7528,13 +7552,13 @@
         <v>72103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,13 +7573,13 @@
         <v>9355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -7564,13 +7588,13 @@
         <v>22834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -7579,13 +7603,13 @@
         <v>32190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7677,13 @@
         <v>11199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7668,13 +7692,13 @@
         <v>9448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7683,13 +7707,13 @@
         <v>20647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>557</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7728,13 @@
         <v>8243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7719,13 +7743,13 @@
         <v>2533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -7734,13 +7758,13 @@
         <v>10775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7808,13 +7832,13 @@
         <v>17103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -7823,13 +7847,13 @@
         <v>16930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>443</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7838,13 +7862,13 @@
         <v>34033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7883,13 @@
         <v>15603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -7874,13 +7898,13 @@
         <v>15541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>582</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -7889,13 +7913,13 @@
         <v>31144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7963,13 +7987,13 @@
         <v>50243</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>365</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -7978,13 +8002,13 @@
         <v>56299</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -7993,13 +8017,13 @@
         <v>106543</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8014,13 +8038,13 @@
         <v>24134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>597</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -8029,13 +8053,13 @@
         <v>18781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -8044,13 +8068,13 @@
         <v>42915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,7 +8130,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8118,13 +8142,13 @@
         <v>53156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -8133,13 +8157,13 @@
         <v>48242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -8148,13 +8172,13 @@
         <v>101398</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8169,13 +8193,13 @@
         <v>13900</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -8184,13 +8208,13 @@
         <v>18894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -8199,13 +8223,13 @@
         <v>32793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,13 +8297,13 @@
         <v>220248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>610</v>
+        <v>451</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
         <v>313</v>
@@ -8288,13 +8312,13 @@
         <v>234711</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
         <v>515</v>
@@ -8303,13 +8327,13 @@
         <v>454958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>125</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,13 +8348,13 @@
         <v>132770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>619</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
@@ -8339,13 +8363,13 @@
         <v>126500</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
@@ -8354,13 +8378,13 @@
         <v>259270</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,7 +8440,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C74E691-104A-4703-8091-75F53BDB2231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAB9E6B-5726-458A-B685-D2D1039A7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8651172A-7B21-4EB8-B399-D97BA2FA1802}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{587380EC-B4D9-43BE-910D-85117C92EDBD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="634">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>49,4%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
   </si>
   <si>
     <t>67,06%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
   </si>
   <si>
     <t>56,47%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,6%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
   </si>
   <si>
     <t>43,53%</t>
   </si>
   <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>43,13%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>60,22%</t>
   </si>
   <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
   </si>
   <si>
     <t>48,45%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
   </si>
   <si>
     <t>56,87%</t>
   </si>
   <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>51,55%</t>
   </si>
   <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>41,88%</t>
   </si>
   <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>17,57%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>58,12%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
   </si>
   <si>
     <t>82,43%</t>
   </si>
   <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1699 +254,1693 @@
     <t>45,66%</t>
   </si>
   <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
   </si>
   <si>
     <t>57,29%</t>
   </si>
   <si>
+    <t>38,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>76,84%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
     <t>38,17%</t>
   </si>
   <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>61,83%</t>
   </si>
   <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>64,9%</t>
   </si>
   <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
   </si>
   <si>
     <t>35,1%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>62,39%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>37,61%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>41,19%</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC0136A-FB11-4D34-807F-BFBA16505C46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615E44F6-950A-4C93-BEA9-4115C8E72A07}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3889,7 +3883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4D37A8-8751-475E-919C-A377F717E815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1348AAC-0C6A-4F7E-BD88-F1A38E48D0E1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4156,7 +4150,7 @@
         <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4165,13 +4159,13 @@
         <v>15915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4180,13 +4174,13 @@
         <v>43963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4195,13 @@
         <v>28542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4216,13 +4210,13 @@
         <v>18400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -4231,13 +4225,13 @@
         <v>46942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,13 +4299,13 @@
         <v>7545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4320,13 +4314,13 @@
         <v>9073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4335,13 +4329,13 @@
         <v>16618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4350,13 @@
         <v>17760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4371,13 +4365,13 @@
         <v>8862</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4386,13 +4380,13 @@
         <v>26622</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4460,13 +4454,13 @@
         <v>46881</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4475,13 +4469,13 @@
         <v>44111</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4490,13 +4484,13 @@
         <v>90993</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4505,13 @@
         <v>37231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4526,13 +4520,13 @@
         <v>15569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>52</v>
@@ -4541,13 +4535,13 @@
         <v>52800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4609,13 @@
         <v>1042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4630,13 +4624,13 @@
         <v>7785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4645,13 +4639,13 @@
         <v>8827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,10 +4660,10 @@
         <v>15127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>94</v>
@@ -4681,13 +4675,13 @@
         <v>3876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4696,13 +4690,13 @@
         <v>19003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4764,13 @@
         <v>21100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4785,13 +4779,13 @@
         <v>7895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4800,13 +4794,13 @@
         <v>28995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4815,13 @@
         <v>22280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4836,13 +4830,13 @@
         <v>7289</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4851,13 +4845,13 @@
         <v>29569</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +4919,13 @@
         <v>32744</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4940,13 +4934,13 @@
         <v>26339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4955,13 +4949,13 @@
         <v>59083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4970,13 @@
         <v>21686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4991,13 +4985,13 @@
         <v>20041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -5006,13 +5000,13 @@
         <v>41727</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5074,13 @@
         <v>15011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5095,13 +5089,13 @@
         <v>13067</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5110,13 +5104,13 @@
         <v>28078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5125,13 @@
         <v>30108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5146,13 +5140,13 @@
         <v>17605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -5161,13 +5155,13 @@
         <v>47713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5229,13 @@
         <v>152372</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>115</v>
@@ -5250,13 +5244,13 @@
         <v>124186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>260</v>
@@ -5265,13 +5259,13 @@
         <v>276557</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5280,13 @@
         <v>172733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -5301,13 +5295,13 @@
         <v>91642</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -5316,13 +5310,13 @@
         <v>264375</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,7 +5396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA7B537-438B-45AF-A13F-56D71E55AE38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A09926A-772F-4BF2-B265-0E7E1E447338}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5419,7 +5413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5526,13 +5520,13 @@
         <v>32556</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5541,13 +5535,13 @@
         <v>26078</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5556,13 +5550,13 @@
         <v>58634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5571,13 @@
         <v>26021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5592,13 +5586,13 @@
         <v>14806</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5607,13 +5601,13 @@
         <v>40827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5675,13 @@
         <v>22854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5696,13 +5690,13 @@
         <v>26312</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5711,13 +5705,13 @@
         <v>49165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5726,13 @@
         <v>59932</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5747,13 +5741,13 @@
         <v>16385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -5762,13 +5756,13 @@
         <v>76318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5830,13 @@
         <v>3575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5851,13 +5845,13 @@
         <v>3702</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5866,13 +5860,13 @@
         <v>7277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5881,13 @@
         <v>17679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5902,13 +5896,13 @@
         <v>8799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5917,13 +5911,13 @@
         <v>26478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +5985,13 @@
         <v>25013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6006,13 +6000,13 @@
         <v>19020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -6021,13 +6015,13 @@
         <v>44033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6036,13 @@
         <v>7452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6057,13 +6051,13 @@
         <v>10915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -6072,13 +6066,13 @@
         <v>18367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6146,13 +6140,13 @@
         <v>9845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6164,7 +6158,7 @@
         <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -6176,13 +6170,13 @@
         <v>15616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,13 +6191,13 @@
         <v>5025</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6215,10 +6209,10 @@
         <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -6227,13 +6221,13 @@
         <v>5025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6301,13 +6295,13 @@
         <v>6107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6316,13 +6310,13 @@
         <v>3487</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6331,13 +6325,13 @@
         <v>9593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6346,13 @@
         <v>16327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6367,13 +6361,13 @@
         <v>3940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6382,13 +6376,13 @@
         <v>20267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,13 +6450,13 @@
         <v>31772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -6471,13 +6465,13 @@
         <v>37138</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -6486,13 +6480,13 @@
         <v>68911</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,13 +6501,13 @@
         <v>46570</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -6522,13 +6516,13 @@
         <v>18544</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6537,13 +6531,13 @@
         <v>65113</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>441</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6605,13 @@
         <v>20273</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6626,13 +6620,13 @@
         <v>9526</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6641,13 +6635,13 @@
         <v>29799</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6656,13 @@
         <v>19001</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6677,13 +6671,13 @@
         <v>11874</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -6692,13 +6686,13 @@
         <v>30875</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6760,13 @@
         <v>151995</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6781,13 +6775,13 @@
         <v>131034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>465</v>
+        <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -6796,13 +6790,13 @@
         <v>283029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6811,13 @@
         <v>198006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -6832,13 +6826,13 @@
         <v>85264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>475</v>
+        <v>59</v>
       </c>
       <c r="M29" s="7">
         <v>267</v>
@@ -6847,13 +6841,13 @@
         <v>283270</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,7 +6927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1E0497F-8D1F-453D-8297-2C8CC4068D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD3BBC4-73B5-452E-B356-B91086DE513F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6950,7 +6944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7057,13 +7051,13 @@
         <v>10621</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>480</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -7072,13 +7066,13 @@
         <v>6564</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
@@ -7087,13 +7081,13 @@
         <v>17185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7102,13 @@
         <v>9950</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>489</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -7123,13 +7117,13 @@
         <v>8279</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -7138,13 +7132,13 @@
         <v>18229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7206,13 @@
         <v>20664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -7227,13 +7221,13 @@
         <v>27338</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -7242,13 +7236,13 @@
         <v>48003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7257,13 @@
         <v>25337</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
@@ -7278,13 +7272,13 @@
         <v>21283</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -7293,13 +7287,13 @@
         <v>46619</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,13 +7361,13 @@
         <v>24483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>388</v>
+        <v>511</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -7382,13 +7376,13 @@
         <v>30565</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -7397,13 +7391,13 @@
         <v>55048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7412,13 @@
         <v>26247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>379</v>
+        <v>521</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -7433,13 +7427,13 @@
         <v>18356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
@@ -7448,13 +7442,13 @@
         <v>44603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7516,13 @@
         <v>32779</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -7537,13 +7531,13 @@
         <v>39325</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
@@ -7552,13 +7546,13 @@
         <v>72103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7567,13 @@
         <v>9355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -7588,13 +7582,13 @@
         <v>22834</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -7603,13 +7597,13 @@
         <v>32190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7671,13 @@
         <v>11199</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -7692,13 +7686,13 @@
         <v>9448</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -7707,13 +7701,13 @@
         <v>20647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7722,13 @@
         <v>8243</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -7743,13 +7737,13 @@
         <v>2533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -7758,13 +7752,13 @@
         <v>10775</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7826,13 @@
         <v>17103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -7847,13 +7841,13 @@
         <v>16930</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -7862,13 +7856,13 @@
         <v>34033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,13 +7877,13 @@
         <v>15603</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -7898,13 +7892,13 @@
         <v>15541</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
@@ -7913,13 +7907,13 @@
         <v>31144</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,13 +7981,13 @@
         <v>50243</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -8002,13 +7996,13 @@
         <v>56299</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
@@ -8017,13 +8011,13 @@
         <v>106543</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8038,13 +8032,13 @@
         <v>24134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
@@ -8053,13 +8047,13 @@
         <v>18781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -8068,13 +8062,13 @@
         <v>42915</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,13 +8136,13 @@
         <v>53156</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -8157,13 +8151,13 @@
         <v>48242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
@@ -8172,13 +8166,13 @@
         <v>101398</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8193,13 +8187,13 @@
         <v>13900</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -8208,13 +8202,13 @@
         <v>18894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -8223,13 +8217,13 @@
         <v>32793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,13 +8291,13 @@
         <v>220248</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>618</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H28" s="7">
         <v>313</v>
@@ -8312,13 +8306,13 @@
         <v>234711</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="M28" s="7">
         <v>515</v>
@@ -8327,13 +8321,13 @@
         <v>454958</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,13 +8342,13 @@
         <v>132770</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
@@ -8363,13 +8357,13 @@
         <v>126500</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
@@ -8378,13 +8372,13 @@
         <v>259270</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6902-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6902-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAB9E6B-5726-458A-B685-D2D1039A7AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1DBD726-A321-48D1-992E-B0090C701ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{587380EC-B4D9-43BE-910D-85117C92EDBD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F29722B4-8A3B-4967-8F5A-1FE0152FB4F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="639">
   <si>
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -593,7 +593,52 @@
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2012 (Tasa respuesta: 7,84%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -704,58 +749,58 @@
     <t>75,13%</t>
   </si>
   <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
   </si>
   <si>
     <t>6,45%</t>
@@ -1193,9 +1238,6 @@
     <t>79,58%</t>
   </si>
   <si>
-    <t>70,57%</t>
-  </si>
-  <si>
     <t>57,75%</t>
   </si>
   <si>
@@ -1220,9 +1262,6 @@
     <t>57,02%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
     <t>18,82%</t>
   </si>
   <si>
@@ -1469,478 +1508,454 @@
     <t>Población según si su trabajo le afecta de manera que se siente nervioso y estresado en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
   </si>
   <si>
     <t>56,23%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615E44F6-950A-4C93-BEA9-4115C8E72A07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D1F614-30FF-46DA-B672-D7763B786E45}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3883,7 +3898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1348AAC-0C6A-4F7E-BD88-F1A38E48D0E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44F87F6-F076-4B73-A9AA-CFD284BBBD99}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4001,43 +4016,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D4" s="7">
+        <v>22288</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25877</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48165</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,43 +4067,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15820</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4268</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N5" s="7">
+        <v>20088</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,43 +4118,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>38108</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="I6" s="7">
+        <v>30145</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="N6" s="7">
+        <v>68253</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4177,13 @@
         <v>28048</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -4159,13 +4192,13 @@
         <v>15915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -4174,13 +4207,13 @@
         <v>43963</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4228,13 @@
         <v>28542</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -4210,13 +4243,13 @@
         <v>18400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>44</v>
@@ -4225,13 +4258,13 @@
         <v>46942</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4332,13 @@
         <v>7545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4314,13 +4347,13 @@
         <v>9073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -4329,13 +4362,13 @@
         <v>16618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4383,13 @@
         <v>17760</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4365,13 +4398,13 @@
         <v>8862</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>26</v>
@@ -4380,13 +4413,13 @@
         <v>26622</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,49 +4481,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>46881</v>
+        <v>24592</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>44111</v>
+        <v>18235</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>90993</v>
+        <v>42828</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,49 +4532,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
-        <v>37231</v>
+        <v>21412</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>15569</v>
+        <v>11300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="N14" s="7">
-        <v>52800</v>
+        <v>32712</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,10 +4583,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D15" s="7">
-        <v>84112</v>
+        <v>46004</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4565,10 +4598,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>59680</v>
+        <v>29535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4580,10 +4613,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="N15" s="7">
-        <v>143793</v>
+        <v>75540</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4609,13 +4642,13 @@
         <v>1042</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4624,13 +4657,13 @@
         <v>7785</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4639,13 +4672,13 @@
         <v>8827</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,10 +4693,10 @@
         <v>15127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>94</v>
@@ -4675,13 +4708,13 @@
         <v>3876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -4690,13 +4723,13 @@
         <v>19003</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4797,13 @@
         <v>21100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4779,13 +4812,13 @@
         <v>7895</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -4794,13 +4827,13 @@
         <v>28995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4848,13 @@
         <v>22280</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -4830,13 +4863,13 @@
         <v>7289</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>28</v>
@@ -4845,13 +4878,13 @@
         <v>29569</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4952,13 @@
         <v>32744</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4934,13 +4967,13 @@
         <v>26339</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -4949,13 +4982,13 @@
         <v>59083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +5003,13 @@
         <v>21686</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -4985,13 +5018,13 @@
         <v>20041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>39</v>
@@ -5000,13 +5033,13 @@
         <v>41727</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5107,13 @@
         <v>15011</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -5089,13 +5122,13 @@
         <v>13067</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -5104,13 +5137,13 @@
         <v>28078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5158,13 @@
         <v>30108</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5140,13 +5173,13 @@
         <v>17605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -5155,13 +5188,13 @@
         <v>47713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5262,13 @@
         <v>152372</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>115</v>
@@ -5244,28 +5277,28 @@
         <v>124186</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>260</v>
       </c>
       <c r="N28" s="7">
-        <v>276557</v>
+        <v>276558</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5313,13 @@
         <v>172733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -5295,13 +5328,13 @@
         <v>91642</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>250</v>
@@ -5310,13 +5343,13 @@
         <v>264375</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,7 +5391,7 @@
         <v>510</v>
       </c>
       <c r="N30" s="7">
-        <v>540932</v>
+        <v>540933</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5396,7 +5429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A09926A-772F-4BF2-B265-0E7E1E447338}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04232CBF-66DE-4E93-8A79-ABA50BEF2535}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5413,7 +5446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5520,13 +5553,13 @@
         <v>32556</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -5535,13 +5568,13 @@
         <v>26078</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="M4" s="7">
         <v>54</v>
@@ -5550,13 +5583,13 @@
         <v>58634</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,13 +5604,13 @@
         <v>26021</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5586,13 +5619,13 @@
         <v>14806</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
@@ -5601,10 +5634,10 @@
         <v>40827</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>136</v>
@@ -5675,13 +5708,13 @@
         <v>22854</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>25</v>
@@ -5690,13 +5723,13 @@
         <v>26312</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5705,13 +5738,13 @@
         <v>49165</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,13 +5759,13 @@
         <v>59932</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5741,13 +5774,13 @@
         <v>16385</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -5756,13 +5789,13 @@
         <v>76318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5863,13 @@
         <v>3575</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5845,13 +5878,13 @@
         <v>3702</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -5860,13 +5893,13 @@
         <v>7277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5914,13 @@
         <v>17679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -5896,13 +5929,13 @@
         <v>8799</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -5911,13 +5944,13 @@
         <v>26478</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6018,13 @@
         <v>25013</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6000,13 +6033,13 @@
         <v>19020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -6015,13 +6048,13 @@
         <v>44033</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6069,13 @@
         <v>7452</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -6051,13 +6084,13 @@
         <v>10915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -6066,13 +6099,13 @@
         <v>18367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6173,13 @@
         <v>9845</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -6158,7 +6191,7 @@
         <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>30</v>
@@ -6170,13 +6203,13 @@
         <v>15616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6224,13 @@
         <v>5025</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6209,10 +6242,10 @@
         <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -6221,13 +6254,13 @@
         <v>5025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6328,13 @@
         <v>6107</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -6310,13 +6343,13 @@
         <v>3487</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6325,13 +6358,13 @@
         <v>9593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6379,13 @@
         <v>16327</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6361,13 +6394,13 @@
         <v>3940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -6376,13 +6409,13 @@
         <v>20267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,10 +6483,10 @@
         <v>31772</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>136</v>
@@ -6465,13 +6498,13 @@
         <v>37138</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -6480,13 +6513,13 @@
         <v>68911</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,13 +6534,13 @@
         <v>46570</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -6516,13 +6549,13 @@
         <v>18544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>59</v>
@@ -6531,13 +6564,13 @@
         <v>65113</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6638,13 @@
         <v>20273</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6620,13 +6653,13 @@
         <v>9526</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -6635,13 +6668,13 @@
         <v>29799</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,13 +6689,13 @@
         <v>19001</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H26" s="7">
         <v>11</v>
@@ -6671,13 +6704,13 @@
         <v>11874</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -6686,13 +6719,13 @@
         <v>30875</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6793,13 @@
         <v>151995</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6775,13 +6808,13 @@
         <v>131034</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="M28" s="7">
         <v>262</v>
@@ -6790,13 +6823,13 @@
         <v>283029</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6811,13 +6844,13 @@
         <v>198006</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="H29" s="7">
         <v>82</v>
@@ -6826,10 +6859,10 @@
         <v>85264</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>59</v>
@@ -6841,13 +6874,13 @@
         <v>283270</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,7 +6960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFD3BBC4-73B5-452E-B356-B91086DE513F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C174F2EE-A2EB-4A66-92DD-76DD8EC8D4CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6944,7 +6977,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7048,46 +7081,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>10621</v>
+        <v>12999</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>489</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>6564</v>
+        <v>7037</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="M4" s="7">
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>17185</v>
+        <v>20036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,46 +7132,46 @@
         <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>9950</v>
+        <v>11070</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>498</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>8279</v>
+        <v>8718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>36</v>
       </c>
       <c r="N5" s="7">
-        <v>18229</v>
+        <v>19788</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,7 +7183,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7165,7 +7198,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7180,7 +7213,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7203,46 +7236,46 @@
         <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>20664</v>
+        <v>20690</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>27338</v>
+        <v>25415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>495</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>496</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
       </c>
       <c r="N7" s="7">
-        <v>48003</v>
+        <v>46105</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,46 +7287,46 @@
         <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>25337</v>
+        <v>25590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="H8" s="7">
         <v>28</v>
       </c>
       <c r="I8" s="7">
-        <v>21283</v>
+        <v>20028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
       </c>
       <c r="N8" s="7">
-        <v>46619</v>
+        <v>45618</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7305,7 +7338,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7320,7 +7353,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7335,7 +7368,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7358,46 +7391,46 @@
         <v>24</v>
       </c>
       <c r="D10" s="7">
-        <v>24483</v>
+        <v>24003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>512</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>30565</v>
+        <v>28749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
       </c>
       <c r="N10" s="7">
-        <v>55048</v>
+        <v>52753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,46 +7442,46 @@
         <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>26247</v>
+        <v>25492</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
       </c>
       <c r="I11" s="7">
-        <v>18356</v>
+        <v>17177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="M11" s="7">
         <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>44603</v>
+        <v>42669</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>526</v>
+        <v>335</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7460,7 +7493,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7475,7 +7508,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7490,7 +7523,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7513,46 +7546,46 @@
         <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>32779</v>
+        <v>31353</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>39325</v>
+        <v>36183</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>79</v>
       </c>
       <c r="N13" s="7">
-        <v>72103</v>
+        <v>67536</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,46 +7597,46 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>9355</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>22834</v>
+        <v>44469</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
       </c>
       <c r="N14" s="7">
-        <v>32190</v>
+        <v>53469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7615,7 +7648,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7630,7 +7663,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7645,7 +7678,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7668,46 +7701,46 @@
         <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>11199</v>
+        <v>10147</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
       </c>
       <c r="I16" s="7">
-        <v>9448</v>
+        <v>8674</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
       </c>
       <c r="N16" s="7">
-        <v>20647</v>
+        <v>18821</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,46 +7752,46 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>8243</v>
+        <v>7610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>2533</v>
+        <v>2312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
       </c>
       <c r="N17" s="7">
-        <v>10775</v>
+        <v>9922</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7770,7 +7803,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7785,7 +7818,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7800,7 +7833,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7823,46 +7856,46 @@
         <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>17103</v>
+        <v>16454</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>16930</v>
+        <v>15648</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>456</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
       </c>
       <c r="N19" s="7">
-        <v>34033</v>
+        <v>32102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,46 +7907,46 @@
         <v>20</v>
       </c>
       <c r="D20" s="7">
-        <v>15603</v>
+        <v>15162</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
       </c>
       <c r="I20" s="7">
-        <v>15541</v>
+        <v>14567</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
         <v>45</v>
       </c>
       <c r="N20" s="7">
-        <v>31144</v>
+        <v>29729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,7 +7958,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7940,7 +7973,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7955,7 +7988,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7978,46 +8011,46 @@
         <v>46</v>
       </c>
       <c r="D22" s="7">
-        <v>50243</v>
+        <v>49341</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>56299</v>
+        <v>52915</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M22" s="7">
         <v>121</v>
       </c>
       <c r="N22" s="7">
-        <v>106543</v>
+        <v>102256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,46 +8062,46 @@
         <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>24134</v>
+        <v>23837</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H23" s="7">
         <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>18781</v>
+        <v>17612</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
       </c>
       <c r="N23" s="7">
-        <v>42915</v>
+        <v>41449</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,7 +8113,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8095,7 +8128,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8110,7 +8143,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8133,46 +8166,46 @@
         <v>46</v>
       </c>
       <c r="D25" s="7">
-        <v>53156</v>
+        <v>44979</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
       </c>
       <c r="I25" s="7">
-        <v>48242</v>
+        <v>39701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="M25" s="7">
         <v>99</v>
       </c>
       <c r="N25" s="7">
-        <v>101398</v>
+        <v>84679</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,46 +8217,46 @@
         <v>11</v>
       </c>
       <c r="D26" s="7">
-        <v>13900</v>
+        <v>11778</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
       </c>
       <c r="I26" s="7">
-        <v>18894</v>
+        <v>15009</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
       </c>
       <c r="N26" s="7">
-        <v>32793</v>
+        <v>26788</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,7 +8268,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8250,7 +8283,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8265,7 +8298,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8288,46 +8321,46 @@
         <v>202</v>
       </c>
       <c r="D28" s="7">
-        <v>220248</v>
+        <v>209966</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="H28" s="7">
         <v>313</v>
       </c>
       <c r="I28" s="7">
-        <v>234711</v>
+        <v>214322</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
         <v>515</v>
       </c>
       <c r="N28" s="7">
-        <v>454958</v>
+        <v>424288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>138</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,46 +8372,46 @@
         <v>136</v>
       </c>
       <c r="D29" s="7">
-        <v>132770</v>
+        <v>129539</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H29" s="7">
         <v>161</v>
       </c>
       <c r="I29" s="7">
-        <v>126500</v>
+        <v>139893</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="M29" s="7">
         <v>297</v>
       </c>
       <c r="N29" s="7">
-        <v>259270</v>
+        <v>269432</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>636</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8390,7 +8423,7 @@
         <v>338</v>
       </c>
       <c r="D30" s="7">
-        <v>353018</v>
+        <v>339505</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8405,7 +8438,7 @@
         <v>474</v>
       </c>
       <c r="I30" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8420,7 +8453,7 @@
         <v>812</v>
       </c>
       <c r="N30" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
